--- a/natmiOut/OldD4/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="H2">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="I2">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="J2">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="N2">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="O2">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="P2">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="Q2">
-        <v>77.00604241958291</v>
+        <v>81.303527583842</v>
       </c>
       <c r="R2">
-        <v>77.00604241958291</v>
+        <v>731.731748254578</v>
       </c>
       <c r="S2">
-        <v>0.2285395554553657</v>
+        <v>0.2148382251779627</v>
       </c>
       <c r="T2">
-        <v>0.2285395554553657</v>
+        <v>0.2379698328919535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="H3">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="I3">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="J3">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.66578613037009</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="N3">
-        <v>7.66578613037009</v>
+        <v>25.529465</v>
       </c>
       <c r="O3">
-        <v>0.371668013800833</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="P3">
-        <v>0.371668013800833</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="Q3">
-        <v>56.43346519601735</v>
+        <v>65.75769818000499</v>
       </c>
       <c r="R3">
-        <v>56.43346519601735</v>
+        <v>591.819283620045</v>
       </c>
       <c r="S3">
-        <v>0.1674839875347734</v>
+        <v>0.1737595844683624</v>
       </c>
       <c r="T3">
-        <v>0.1674839875347734</v>
+        <v>0.19246825952439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.36173227849925</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="H4">
-        <v>7.36173227849925</v>
+        <v>23.181813</v>
       </c>
       <c r="I4">
-        <v>0.4506279295385468</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="J4">
-        <v>0.4506279295385468</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.49925712434595</v>
+        <v>0.1148996666666667</v>
       </c>
       <c r="N4">
-        <v>2.49925712434595</v>
+        <v>0.344699</v>
       </c>
       <c r="O4">
-        <v>0.1211739951501094</v>
+        <v>0.005222247538993557</v>
       </c>
       <c r="P4">
-        <v>0.1211739951501094</v>
+        <v>0.005431273346901209</v>
       </c>
       <c r="Q4">
-        <v>18.3988618445668</v>
+        <v>0.8878608621429999</v>
       </c>
       <c r="R4">
-        <v>18.3988618445668</v>
+        <v>7.990747759286998</v>
       </c>
       <c r="S4">
-        <v>0.05460438654840769</v>
+        <v>0.002346103022787984</v>
       </c>
       <c r="T4">
-        <v>0.05460438654840769</v>
+        <v>0.002598707673262942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.97705345708693</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="H5">
-        <v>5.97705345708693</v>
+        <v>23.181813</v>
       </c>
       <c r="I5">
-        <v>0.3658686735966679</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="J5">
-        <v>0.3658686735966679</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.4603155217268</v>
+        <v>0.315325</v>
       </c>
       <c r="N5">
-        <v>10.4603155217268</v>
+        <v>0.945975</v>
       </c>
       <c r="O5">
-        <v>0.5071579910490577</v>
+        <v>0.01433167956883957</v>
       </c>
       <c r="P5">
-        <v>0.5071579910490577</v>
+        <v>0.01490531972629706</v>
       </c>
       <c r="Q5">
-        <v>62.52186505135724</v>
+        <v>2.436601728075</v>
       </c>
       <c r="R5">
-        <v>62.52186505135724</v>
+        <v>21.929415552675</v>
       </c>
       <c r="S5">
-        <v>0.1855532214890695</v>
+        <v>0.006438529868035194</v>
       </c>
       <c r="T5">
-        <v>0.1855532214890695</v>
+        <v>0.007131765659937835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.97705345708693</v>
+        <v>7.727270999999999</v>
       </c>
       <c r="H6">
-        <v>5.97705345708693</v>
+        <v>23.181813</v>
       </c>
       <c r="I6">
-        <v>0.3658686735966679</v>
+        <v>0.4492515923977304</v>
       </c>
       <c r="J6">
-        <v>0.3658686735966679</v>
+        <v>0.4784711627054499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66578613037009</v>
+        <v>2.5402755</v>
       </c>
       <c r="N6">
-        <v>7.66578613037009</v>
+        <v>5.080551</v>
       </c>
       <c r="O6">
-        <v>0.371668013800833</v>
+        <v>0.1154567969002575</v>
       </c>
       <c r="P6">
-        <v>0.371668013800833</v>
+        <v>0.08005204898729699</v>
       </c>
       <c r="Q6">
-        <v>45.81881349181758</v>
+        <v>19.6293972031605</v>
       </c>
       <c r="R6">
-        <v>45.81881349181758</v>
+        <v>117.776383218963</v>
       </c>
       <c r="S6">
-        <v>0.1359816832276188</v>
+        <v>0.05186914986058205</v>
       </c>
       <c r="T6">
-        <v>0.1359816832276188</v>
+        <v>0.03830259695590563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.97705345708693</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H7">
-        <v>5.97705345708693</v>
+        <v>18.878545</v>
       </c>
       <c r="I7">
-        <v>0.3658686735966679</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="J7">
-        <v>0.3658686735966679</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.49925712434595</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="N7">
-        <v>2.49925712434595</v>
+        <v>31.564906</v>
       </c>
       <c r="O7">
-        <v>0.1211739951501094</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="P7">
-        <v>0.1211739951501094</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="Q7">
-        <v>14.9381934352211</v>
+        <v>66.21105537130778</v>
       </c>
       <c r="R7">
-        <v>14.9381934352211</v>
+        <v>595.89949834177</v>
       </c>
       <c r="S7">
-        <v>0.04433376887997958</v>
+        <v>0.1749575454578252</v>
       </c>
       <c r="T7">
-        <v>0.04433376887997958</v>
+        <v>0.1937952048398123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.99782324033289</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H8">
-        <v>2.99782324033289</v>
+        <v>18.878545</v>
       </c>
       <c r="I8">
-        <v>0.1835033968647853</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="J8">
-        <v>0.1835033968647853</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4603155217268</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="N8">
-        <v>10.4603155217268</v>
+        <v>25.529465</v>
       </c>
       <c r="O8">
-        <v>0.5071579910490577</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="P8">
-        <v>0.5071579910490577</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="Q8">
-        <v>31.35817697224746</v>
+        <v>53.55101709204722</v>
       </c>
       <c r="R8">
-        <v>31.35817697224746</v>
+        <v>481.959153828425</v>
       </c>
       <c r="S8">
-        <v>0.09306521410462244</v>
+        <v>0.1415043825332937</v>
       </c>
       <c r="T8">
-        <v>0.09306521410462244</v>
+        <v>0.1567401435989013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.99782324033289</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="H9">
-        <v>2.99782324033289</v>
+        <v>18.878545</v>
       </c>
       <c r="I9">
-        <v>0.1835033968647853</v>
+        <v>0.3658564756519351</v>
       </c>
       <c r="J9">
-        <v>0.1835033968647853</v>
+        <v>0.3896519817642027</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.66578613037009</v>
+        <v>0.1148996666666667</v>
       </c>
       <c r="N9">
-        <v>7.66578613037009</v>
+        <v>0.344699</v>
       </c>
       <c r="O9">
-        <v>0.371668013800833</v>
+        <v>0.005222247538993557</v>
       </c>
       <c r="P9">
-        <v>0.371668013800833</v>
+        <v>0.005431273346901209</v>
       </c>
       <c r="Q9">
-        <v>22.98067181704499</v>
+        <v>0.7230461758838888</v>
       </c>
       <c r="R9">
-        <v>22.98067181704499</v>
+        <v>6.507415582954999</v>
       </c>
       <c r="S9">
-        <v>0.06820234303844075</v>
+        <v>0.001910593079598174</v>
       </c>
       <c r="T9">
-        <v>0.06820234303844075</v>
+        <v>0.00211630642312315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="H10">
+        <v>18.878545</v>
+      </c>
+      <c r="I10">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="J10">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.315325</v>
+      </c>
+      <c r="N10">
+        <v>0.945975</v>
+      </c>
+      <c r="O10">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="P10">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="Q10">
+        <v>1.984292400708333</v>
+      </c>
+      <c r="R10">
+        <v>17.858631606375</v>
+      </c>
+      <c r="S10">
+        <v>0.005243337777228489</v>
+      </c>
+      <c r="T10">
+        <v>0.005807887370180715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.292848333333333</v>
+      </c>
+      <c r="H11">
+        <v>18.878545</v>
+      </c>
+      <c r="I11">
+        <v>0.3658564756519351</v>
+      </c>
+      <c r="J11">
+        <v>0.3896519817642027</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.5402755</v>
+      </c>
+      <c r="N11">
+        <v>5.080551</v>
+      </c>
+      <c r="O11">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="P11">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="Q11">
+        <v>15.9855684463825</v>
+      </c>
+      <c r="R11">
+        <v>95.91341067829499</v>
+      </c>
+      <c r="S11">
+        <v>0.04224061680398949</v>
+      </c>
+      <c r="T11">
+        <v>0.03119243953218531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.021228</v>
+      </c>
+      <c r="H12">
+        <v>0.063684</v>
+      </c>
+      <c r="I12">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="J12">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.52163533333333</v>
+      </c>
+      <c r="N12">
+        <v>31.564906</v>
+      </c>
+      <c r="O12">
+        <v>0.4782136086181363</v>
+      </c>
+      <c r="P12">
+        <v>0.4973545982298819</v>
+      </c>
+      <c r="Q12">
+        <v>0.223353274856</v>
+      </c>
+      <c r="R12">
+        <v>2.010179473704</v>
+      </c>
+      <c r="S12">
+        <v>0.0005901935941004002</v>
+      </c>
+      <c r="T12">
+        <v>0.0006537396724704478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.021228</v>
+      </c>
+      <c r="H13">
+        <v>0.063684</v>
+      </c>
+      <c r="I13">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="J13">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="N13">
+        <v>25.529465</v>
+      </c>
+      <c r="O13">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="P13">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="Q13">
+        <v>0.18064649434</v>
+      </c>
+      <c r="R13">
+        <v>1.62581844906</v>
+      </c>
+      <c r="S13">
+        <v>0.0004773442602303448</v>
+      </c>
+      <c r="T13">
+        <v>0.0005287398634244551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.021228</v>
+      </c>
+      <c r="H14">
+        <v>0.063684</v>
+      </c>
+      <c r="I14">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="J14">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.344699</v>
+      </c>
+      <c r="O14">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="P14">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="Q14">
+        <v>0.002439090124</v>
+      </c>
+      <c r="R14">
+        <v>0.021951811116</v>
+      </c>
+      <c r="S14">
+        <v>6.445105260025607E-06</v>
+      </c>
+      <c r="T14">
+        <v>7.139049023649584E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.021228</v>
+      </c>
+      <c r="H15">
+        <v>0.063684</v>
+      </c>
+      <c r="I15">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="J15">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.315325</v>
+      </c>
+      <c r="N15">
+        <v>0.945975</v>
+      </c>
+      <c r="O15">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="P15">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="Q15">
+        <v>0.0066937191</v>
+      </c>
+      <c r="R15">
+        <v>0.0602434719</v>
+      </c>
+      <c r="S15">
+        <v>1.768763021753102E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.959205538788019E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.021228</v>
+      </c>
+      <c r="H16">
+        <v>0.063684</v>
+      </c>
+      <c r="I16">
+        <v>0.001234163109255392</v>
+      </c>
+      <c r="J16">
+        <v>0.001314433755709007</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.5402755</v>
+      </c>
+      <c r="N16">
+        <v>5.080551</v>
+      </c>
+      <c r="O16">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="P16">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="Q16">
+        <v>0.053924968314</v>
+      </c>
+      <c r="R16">
+        <v>0.323549809884</v>
+      </c>
+      <c r="S16">
+        <v>0.0001424925194470902</v>
+      </c>
+      <c r="T16">
+        <v>0.0001052231154025742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.02332</v>
+      </c>
+      <c r="I17">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="J17">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.52163533333333</v>
+      </c>
+      <c r="N17">
+        <v>31.564906</v>
+      </c>
+      <c r="O17">
+        <v>0.4782136086181363</v>
+      </c>
+      <c r="P17">
+        <v>0.4973545982298819</v>
+      </c>
+      <c r="Q17">
+        <v>0.08178817865777778</v>
+      </c>
+      <c r="R17">
+        <v>0.73609360792</v>
+      </c>
+      <c r="S17">
+        <v>0.0002161188778095178</v>
+      </c>
+      <c r="T17">
+        <v>0.000239388373249338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.02332</v>
+      </c>
+      <c r="I18">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="J18">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="N18">
+        <v>25.529465</v>
+      </c>
+      <c r="O18">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="P18">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="Q18">
+        <v>0.06614968042222223</v>
+      </c>
+      <c r="R18">
+        <v>0.5953471238000001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001747953669457264</v>
+      </c>
+      <c r="T18">
+        <v>0.0001936155645854264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="H10">
-        <v>2.99782324033289</v>
-      </c>
-      <c r="I10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="J10">
-        <v>0.1835033968647853</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="N10">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="O10">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="P10">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="Q10">
-        <v>7.492331090931836</v>
-      </c>
-      <c r="R10">
-        <v>7.492331090931836</v>
-      </c>
-      <c r="S10">
-        <v>0.02223583972172208</v>
-      </c>
-      <c r="T10">
-        <v>0.02223583972172208</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.02332</v>
+      </c>
+      <c r="I19">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="J19">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.344699</v>
+      </c>
+      <c r="O19">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="P19">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="Q19">
+        <v>0.0008931534088888888</v>
+      </c>
+      <c r="R19">
+        <v>0.00803838068</v>
+      </c>
+      <c r="S19">
+        <v>2.360088164433722E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.61419859354796E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.02332</v>
+      </c>
+      <c r="I20">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="J20">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.315325</v>
+      </c>
+      <c r="N20">
+        <v>0.945975</v>
+      </c>
+      <c r="O20">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="P20">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="Q20">
+        <v>0.002451126333333334</v>
+      </c>
+      <c r="R20">
+        <v>0.022060137</v>
+      </c>
+      <c r="S20">
+        <v>6.476910003655916E-06</v>
+      </c>
+      <c r="T20">
+        <v>7.174278180474941E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.007773333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.02332</v>
+      </c>
+      <c r="I21">
+        <v>0.0004519295852621654</v>
+      </c>
+      <c r="J21">
+        <v>0.0004813233336965963</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.5402755</v>
+      </c>
+      <c r="N21">
+        <v>5.080551</v>
+      </c>
+      <c r="O21">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="P21">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="Q21">
+        <v>0.01974640822</v>
+      </c>
+      <c r="R21">
+        <v>0.11847844932</v>
+      </c>
+      <c r="S21">
+        <v>5.217834233883146E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.853091908780903E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.151199</v>
+      </c>
+      <c r="H22">
+        <v>6.302398</v>
+      </c>
+      <c r="I22">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="J22">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.52163533333333</v>
+      </c>
+      <c r="N22">
+        <v>31.564906</v>
+      </c>
+      <c r="O22">
+        <v>0.4782136086181363</v>
+      </c>
+      <c r="P22">
+        <v>0.4973545982298819</v>
+      </c>
+      <c r="Q22">
+        <v>33.15576674076467</v>
+      </c>
+      <c r="R22">
+        <v>198.934600444588</v>
+      </c>
+      <c r="S22">
+        <v>0.08761152551043844</v>
+      </c>
+      <c r="T22">
+        <v>0.06469643245239629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.151199</v>
+      </c>
+      <c r="H23">
+        <v>6.302398</v>
+      </c>
+      <c r="I23">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="J23">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="N23">
+        <v>25.529465</v>
+      </c>
+      <c r="O23">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="P23">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="Q23">
+        <v>26.81614152617833</v>
+      </c>
+      <c r="R23">
+        <v>160.89684915707</v>
+      </c>
+      <c r="S23">
+        <v>0.07085956074494076</v>
+      </c>
+      <c r="T23">
+        <v>0.05232600115832169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.151199</v>
+      </c>
+      <c r="H24">
+        <v>6.302398</v>
+      </c>
+      <c r="I24">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="J24">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.344699</v>
+      </c>
+      <c r="O24">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="P24">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="Q24">
+        <v>0.3620717147003333</v>
+      </c>
+      <c r="R24">
+        <v>2.172430288202</v>
+      </c>
+      <c r="S24">
+        <v>0.0009567462431829392</v>
+      </c>
+      <c r="T24">
+        <v>0.0007065060028979192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.151199</v>
+      </c>
+      <c r="H25">
+        <v>6.302398</v>
+      </c>
+      <c r="I25">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="J25">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.315325</v>
+      </c>
+      <c r="N25">
+        <v>0.945975</v>
+      </c>
+      <c r="O25">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="P25">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="Q25">
+        <v>0.9936518246750001</v>
+      </c>
+      <c r="R25">
+        <v>5.96191094805</v>
+      </c>
+      <c r="S25">
+        <v>0.002625647383354698</v>
+      </c>
+      <c r="T25">
+        <v>0.001938900362610159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.151199</v>
+      </c>
+      <c r="H26">
+        <v>6.302398</v>
+      </c>
+      <c r="I26">
+        <v>0.183205839255817</v>
+      </c>
+      <c r="J26">
+        <v>0.1300810984409417</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.5402755</v>
+      </c>
+      <c r="N26">
+        <v>5.080551</v>
+      </c>
+      <c r="O26">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="P26">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="Q26">
+        <v>8.004913615324499</v>
+      </c>
+      <c r="R26">
+        <v>32.019654461298</v>
+      </c>
+      <c r="S26">
+        <v>0.02115235937390009</v>
+      </c>
+      <c r="T26">
+        <v>0.01041325846471567</v>
       </c>
     </row>
   </sheetData>
